--- a/data/pca/factorExposure/factorExposure_2016-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01759468485387175</v>
+        <v>-0.01963223077373039</v>
       </c>
       <c r="C2">
-        <v>-0.04250728767213939</v>
+        <v>-0.03791123119416238</v>
       </c>
       <c r="D2">
-        <v>0.1090250659793934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.117245561080922</v>
+      </c>
+      <c r="E2">
+        <v>0.08819668335215128</v>
+      </c>
+      <c r="F2">
+        <v>-0.002213333653624772</v>
+      </c>
+      <c r="G2">
+        <v>-0.02610745201686604</v>
+      </c>
+      <c r="H2">
+        <v>0.09251290935606681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02388826098488804</v>
+        <v>-0.01402388753906</v>
       </c>
       <c r="C3">
-        <v>-0.07657564117627838</v>
+        <v>-0.04196756686276853</v>
       </c>
       <c r="D3">
-        <v>0.160104577082296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08061410521842906</v>
+      </c>
+      <c r="E3">
+        <v>0.1069497348375071</v>
+      </c>
+      <c r="F3">
+        <v>0.03927483953638083</v>
+      </c>
+      <c r="G3">
+        <v>-0.08377898061093027</v>
+      </c>
+      <c r="H3">
+        <v>0.06390873442416813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0588768028200243</v>
+        <v>-0.05993925662605443</v>
       </c>
       <c r="C4">
-        <v>-0.05749984807358621</v>
+        <v>-0.06708248467286371</v>
       </c>
       <c r="D4">
-        <v>0.1231187972068628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1284068550605294</v>
+      </c>
+      <c r="E4">
+        <v>0.07119933590023099</v>
+      </c>
+      <c r="F4">
+        <v>0.005985160507819529</v>
+      </c>
+      <c r="G4">
+        <v>0.0288288265093389</v>
+      </c>
+      <c r="H4">
+        <v>-0.02921652786951358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04111954365094502</v>
+        <v>-0.04026990596801232</v>
       </c>
       <c r="C6">
-        <v>-0.0275386950982914</v>
+        <v>-0.02760680818514976</v>
       </c>
       <c r="D6">
-        <v>0.1210114766131081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1263617962729218</v>
+      </c>
+      <c r="E6">
+        <v>0.04419522119211324</v>
+      </c>
+      <c r="F6">
+        <v>0.007575384902772148</v>
+      </c>
+      <c r="G6">
+        <v>-0.00858036709385872</v>
+      </c>
+      <c r="H6">
+        <v>0.004248988208202198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02644506153381381</v>
+        <v>-0.01963452975848164</v>
       </c>
       <c r="C7">
-        <v>-0.03002999491547815</v>
+        <v>-0.03618553746024204</v>
       </c>
       <c r="D7">
-        <v>0.08890914898069435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09082832081339576</v>
+      </c>
+      <c r="E7">
+        <v>0.05602294922567556</v>
+      </c>
+      <c r="F7">
+        <v>0.01470072374777757</v>
+      </c>
+      <c r="G7">
+        <v>0.05271193714250597</v>
+      </c>
+      <c r="H7">
+        <v>0.08738882597774521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00689178840379583</v>
+        <v>-0.007526129902487181</v>
       </c>
       <c r="C8">
-        <v>-0.03876658867634237</v>
+        <v>-0.0375716602267124</v>
       </c>
       <c r="D8">
-        <v>0.07338777049542834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07818124878579359</v>
+      </c>
+      <c r="E8">
+        <v>0.04181187224085742</v>
+      </c>
+      <c r="F8">
+        <v>0.02624755973283995</v>
+      </c>
+      <c r="G8">
+        <v>0.002930970365947503</v>
+      </c>
+      <c r="H8">
+        <v>0.02587720185285395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04037662525479852</v>
+        <v>-0.04320920347344059</v>
       </c>
       <c r="C9">
-        <v>-0.04163785290280007</v>
+        <v>-0.05517251843399565</v>
       </c>
       <c r="D9">
-        <v>0.09784976501959071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1107322732468509</v>
+      </c>
+      <c r="E9">
+        <v>0.04751788415397751</v>
+      </c>
+      <c r="F9">
+        <v>-0.004963253050808185</v>
+      </c>
+      <c r="G9">
+        <v>0.03228059945821814</v>
+      </c>
+      <c r="H9">
+        <v>-0.002180823694766169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07788520764525722</v>
+        <v>-0.1159704325909584</v>
       </c>
       <c r="C10">
-        <v>0.1941989615387926</v>
+        <v>0.1965196202073892</v>
       </c>
       <c r="D10">
-        <v>0.02074730984757012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0006432060211178198</v>
+      </c>
+      <c r="E10">
+        <v>0.04884105615531532</v>
+      </c>
+      <c r="F10">
+        <v>0.01412867656234554</v>
+      </c>
+      <c r="G10">
+        <v>0.03188238949244619</v>
+      </c>
+      <c r="H10">
+        <v>-0.02156478864534828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04192761202680843</v>
+        <v>-0.03318920752737457</v>
       </c>
       <c r="C11">
-        <v>-0.04586749590662222</v>
+        <v>-0.04484166396708103</v>
       </c>
       <c r="D11">
-        <v>0.06153849275814841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05924507191424971</v>
+      </c>
+      <c r="E11">
+        <v>0.01819486499787273</v>
+      </c>
+      <c r="F11">
+        <v>0.002256057499220365</v>
+      </c>
+      <c r="G11">
+        <v>0.0314494935619737</v>
+      </c>
+      <c r="H11">
+        <v>0.05295217013696394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04726918905373061</v>
+        <v>-0.03716054678963372</v>
       </c>
       <c r="C12">
-        <v>-0.04275297738126419</v>
+        <v>-0.04488214373723099</v>
       </c>
       <c r="D12">
-        <v>0.05379427586695738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05668163100548306</v>
+      </c>
+      <c r="E12">
+        <v>0.02931563932506361</v>
+      </c>
+      <c r="F12">
+        <v>-0.004436821386715844</v>
+      </c>
+      <c r="G12">
+        <v>0.03059237782899025</v>
+      </c>
+      <c r="H12">
+        <v>0.05992733177142402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0159272211186758</v>
+        <v>-0.01967963596805367</v>
       </c>
       <c r="C13">
-        <v>-0.03492649670094724</v>
+        <v>-0.03776453763694019</v>
       </c>
       <c r="D13">
-        <v>0.1272115118878684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1365940428782638</v>
+      </c>
+      <c r="E13">
+        <v>0.0856464427146085</v>
+      </c>
+      <c r="F13">
+        <v>0.0142292224902392</v>
+      </c>
+      <c r="G13">
+        <v>0.03621288869912234</v>
+      </c>
+      <c r="H13">
+        <v>0.07070727801017969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01333989074056542</v>
+        <v>-0.00809813712795485</v>
       </c>
       <c r="C14">
-        <v>-0.02270866575367111</v>
+        <v>-0.02639319870541019</v>
       </c>
       <c r="D14">
-        <v>0.08008445628561044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08170922411323314</v>
+      </c>
+      <c r="E14">
+        <v>0.05299232666662614</v>
+      </c>
+      <c r="F14">
+        <v>-0.01260997665382844</v>
+      </c>
+      <c r="G14">
+        <v>0.03024072003007675</v>
+      </c>
+      <c r="H14">
+        <v>0.08409626743219277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0009605592073744195</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.006115638765194896</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02091075848755883</v>
+      </c>
+      <c r="E15">
+        <v>0.003624288924880499</v>
+      </c>
+      <c r="F15">
+        <v>-0.002230935363044325</v>
+      </c>
+      <c r="G15">
+        <v>-0.002476154273718163</v>
+      </c>
+      <c r="H15">
+        <v>0.01259708567414603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0437688447746112</v>
+        <v>-0.0343521046275508</v>
       </c>
       <c r="C16">
-        <v>-0.04982472776115329</v>
+        <v>-0.0470753463962643</v>
       </c>
       <c r="D16">
-        <v>0.06283524926067338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06232063194850056</v>
+      </c>
+      <c r="E16">
+        <v>0.03052650866602081</v>
+      </c>
+      <c r="F16">
+        <v>-0.01367993583003486</v>
+      </c>
+      <c r="G16">
+        <v>0.02768587135853325</v>
+      </c>
+      <c r="H16">
+        <v>0.05878397517766569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01618642254457608</v>
+        <v>-0.01427526023515983</v>
       </c>
       <c r="C19">
-        <v>-0.03899204656030977</v>
+        <v>-0.0345621496422306</v>
       </c>
       <c r="D19">
-        <v>0.172251588980001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1326444017366726</v>
+      </c>
+      <c r="E19">
+        <v>0.08067487244387356</v>
+      </c>
+      <c r="F19">
+        <v>-0.03142299370217697</v>
+      </c>
+      <c r="G19">
+        <v>0.002145588824539989</v>
+      </c>
+      <c r="H19">
+        <v>0.04898961574773997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02103280827869583</v>
+        <v>-0.01703452046535862</v>
       </c>
       <c r="C20">
-        <v>-0.03560241833199428</v>
+        <v>-0.03707768629334883</v>
       </c>
       <c r="D20">
-        <v>0.09545692122545923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0925346629161414</v>
+      </c>
+      <c r="E20">
+        <v>0.067236512067049</v>
+      </c>
+      <c r="F20">
+        <v>-0.0119659965415382</v>
+      </c>
+      <c r="G20">
+        <v>0.02013422754927761</v>
+      </c>
+      <c r="H20">
+        <v>0.04333949907327903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0138286509285267</v>
+        <v>-0.01636172976359302</v>
       </c>
       <c r="C21">
-        <v>-0.02799494437428059</v>
+        <v>-0.03877019172342632</v>
       </c>
       <c r="D21">
-        <v>0.1278801585370231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1290866109160574</v>
+      </c>
+      <c r="E21">
+        <v>0.1102524547630333</v>
+      </c>
+      <c r="F21">
+        <v>-0.01825713419081804</v>
+      </c>
+      <c r="G21">
+        <v>0.07281114762441708</v>
+      </c>
+      <c r="H21">
+        <v>0.07587882652749781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001272311747713133</v>
+        <v>-0.005271169956508913</v>
       </c>
       <c r="C22">
-        <v>-0.01069593379923475</v>
+        <v>-0.03278414322456659</v>
       </c>
       <c r="D22">
-        <v>0.0483814433134306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1107614275904409</v>
+      </c>
+      <c r="E22">
+        <v>0.03382421989687259</v>
+      </c>
+      <c r="F22">
+        <v>0.07169769618738549</v>
+      </c>
+      <c r="G22">
+        <v>-0.05037289413911036</v>
+      </c>
+      <c r="H22">
+        <v>-0.01579575553869709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001227925979779845</v>
+        <v>-0.005364851640763207</v>
       </c>
       <c r="C23">
-        <v>-0.01052818693531466</v>
+        <v>-0.03313071323390467</v>
       </c>
       <c r="D23">
-        <v>0.04806998481826744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1100274338593006</v>
+      </c>
+      <c r="E23">
+        <v>0.03394962700889298</v>
+      </c>
+      <c r="F23">
+        <v>0.07162573672393886</v>
+      </c>
+      <c r="G23">
+        <v>-0.04967860209258875</v>
+      </c>
+      <c r="H23">
+        <v>-0.01629069986319417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.04016584021148849</v>
+        <v>-0.03532464566229371</v>
       </c>
       <c r="C24">
-        <v>-0.04945461885726912</v>
+        <v>-0.05446550211796475</v>
       </c>
       <c r="D24">
-        <v>0.06392715407869545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06622478564279706</v>
+      </c>
+      <c r="E24">
+        <v>0.03236684344635959</v>
+      </c>
+      <c r="F24">
+        <v>-0.01214261634488203</v>
+      </c>
+      <c r="G24">
+        <v>0.04414460655651466</v>
+      </c>
+      <c r="H24">
+        <v>0.06109442386695572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04823212561052052</v>
+        <v>-0.04002924379901284</v>
       </c>
       <c r="C25">
-        <v>-0.05232433184667006</v>
+        <v>-0.05311780373862899</v>
       </c>
       <c r="D25">
-        <v>0.06297466024504465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06062371244827917</v>
+      </c>
+      <c r="E25">
+        <v>0.03052208974134461</v>
+      </c>
+      <c r="F25">
+        <v>0.002370616222894154</v>
+      </c>
+      <c r="G25">
+        <v>0.04099197475460643</v>
+      </c>
+      <c r="H25">
+        <v>0.04886028232052689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02431221994403048</v>
+        <v>-0.02161979283240686</v>
       </c>
       <c r="C26">
-        <v>-0.009705003499950788</v>
+        <v>-0.01774991568550779</v>
       </c>
       <c r="D26">
-        <v>0.05819660469136196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06427101305844786</v>
+      </c>
+      <c r="E26">
+        <v>0.03699168734904256</v>
+      </c>
+      <c r="F26">
+        <v>-0.0104242308814324</v>
+      </c>
+      <c r="G26">
+        <v>0.0181470507431597</v>
+      </c>
+      <c r="H26">
+        <v>0.05126555775981977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1090945209732161</v>
+        <v>-0.1642823895087385</v>
       </c>
       <c r="C28">
-        <v>0.2793252953459702</v>
+        <v>0.2623183126291345</v>
       </c>
       <c r="D28">
-        <v>-0.02175404211898581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.009312210824792312</v>
+      </c>
+      <c r="E28">
+        <v>0.07094509425673408</v>
+      </c>
+      <c r="F28">
+        <v>0.003296305893335219</v>
+      </c>
+      <c r="G28">
+        <v>0.06807560385523546</v>
+      </c>
+      <c r="H28">
+        <v>-0.02342499632620171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007840038463723279</v>
+        <v>-0.007817373170046748</v>
       </c>
       <c r="C29">
-        <v>-0.02205592654462912</v>
+        <v>-0.02430785157556276</v>
       </c>
       <c r="D29">
-        <v>0.06329522848687813</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07393375007575015</v>
+      </c>
+      <c r="E29">
+        <v>0.05769598592629337</v>
+      </c>
+      <c r="F29">
+        <v>0.0005481712522050924</v>
+      </c>
+      <c r="G29">
+        <v>0.04278149964041793</v>
+      </c>
+      <c r="H29">
+        <v>0.07783376218670823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04436371940894809</v>
+        <v>-0.0449206919905024</v>
       </c>
       <c r="C30">
-        <v>-0.03414097331145207</v>
+        <v>-0.05527509668699362</v>
       </c>
       <c r="D30">
-        <v>0.1482500018397767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1689337808492391</v>
+      </c>
+      <c r="E30">
+        <v>0.03736903403130471</v>
+      </c>
+      <c r="F30">
+        <v>-0.004282456331638667</v>
+      </c>
+      <c r="G30">
+        <v>-0.01809506607239989</v>
+      </c>
+      <c r="H30">
+        <v>0.01724147299382037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06996642563143725</v>
+        <v>-0.06333813080406307</v>
       </c>
       <c r="C31">
-        <v>-0.05360640057528944</v>
+        <v>-0.07150724191288908</v>
       </c>
       <c r="D31">
-        <v>0.06277773756588557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05175932919807002</v>
+      </c>
+      <c r="E31">
+        <v>0.06075183981254081</v>
+      </c>
+      <c r="F31">
+        <v>0.0346249971717433</v>
+      </c>
+      <c r="G31">
+        <v>0.02801293442144395</v>
+      </c>
+      <c r="H31">
+        <v>0.02438685417062406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002505659297471217</v>
+        <v>-0.0114161892195635</v>
       </c>
       <c r="C32">
-        <v>-0.009449399745676729</v>
+        <v>-0.02199168709754835</v>
       </c>
       <c r="D32">
-        <v>0.07634660915875081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09029999447194453</v>
+      </c>
+      <c r="E32">
+        <v>0.09444673378521425</v>
+      </c>
+      <c r="F32">
+        <v>-0.009464990485802481</v>
+      </c>
+      <c r="G32">
+        <v>0.07175371662812037</v>
+      </c>
+      <c r="H32">
+        <v>0.05574795679001644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03009224268612885</v>
+        <v>-0.02665451978575122</v>
       </c>
       <c r="C33">
-        <v>-0.03337223848789635</v>
+        <v>-0.04446018746227948</v>
       </c>
       <c r="D33">
-        <v>0.1346640504101617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.129503829237833</v>
+      </c>
+      <c r="E33">
+        <v>0.06377663523372509</v>
+      </c>
+      <c r="F33">
+        <v>0.008391584789755291</v>
+      </c>
+      <c r="G33">
+        <v>0.03438249768423162</v>
+      </c>
+      <c r="H33">
+        <v>0.05153604247193089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04261637818898557</v>
+        <v>-0.03452404965449516</v>
       </c>
       <c r="C34">
-        <v>-0.06053816591973362</v>
+        <v>-0.06076442105008803</v>
       </c>
       <c r="D34">
-        <v>0.060702635267882</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0595692990998485</v>
+      </c>
+      <c r="E34">
+        <v>0.0138628183601136</v>
+      </c>
+      <c r="F34">
+        <v>-0.00857064921417393</v>
+      </c>
+      <c r="G34">
+        <v>0.04515488042424837</v>
+      </c>
+      <c r="H34">
+        <v>0.06927130472639806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0003226991039766708</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-5.306842093854063e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001850965901438993</v>
+      </c>
+      <c r="E35">
+        <v>-1.978095207705162e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0002631389623946762</v>
+      </c>
+      <c r="G35">
+        <v>0.0006439919458438187</v>
+      </c>
+      <c r="H35">
+        <v>0.002169103655475782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02094590395757276</v>
+        <v>-0.01892701793610452</v>
       </c>
       <c r="C36">
-        <v>-0.009302484522404635</v>
+        <v>-0.01732468825530608</v>
       </c>
       <c r="D36">
-        <v>0.07231746131903261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07376821973957699</v>
+      </c>
+      <c r="E36">
+        <v>0.05130082896851935</v>
+      </c>
+      <c r="F36">
+        <v>-0.007831057227777089</v>
+      </c>
+      <c r="G36">
+        <v>0.03058489447046721</v>
+      </c>
+      <c r="H36">
+        <v>0.04234804132089399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03024496259078878</v>
+        <v>-0.02401309591780464</v>
       </c>
       <c r="C38">
-        <v>-0.02106269371303966</v>
+        <v>-0.0232906587176524</v>
       </c>
       <c r="D38">
-        <v>0.05354497307740869</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0592915873592551</v>
+      </c>
+      <c r="E38">
+        <v>0.04179673372627341</v>
+      </c>
+      <c r="F38">
+        <v>-0.007125454388999349</v>
+      </c>
+      <c r="G38">
+        <v>-0.026229209800597</v>
+      </c>
+      <c r="H38">
+        <v>0.03454321792510421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04859402131069913</v>
+        <v>-0.04091308023445161</v>
       </c>
       <c r="C39">
-        <v>-0.05630629884578894</v>
+        <v>-0.06201687378862717</v>
       </c>
       <c r="D39">
-        <v>0.07909105003159421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09684796757917311</v>
+      </c>
+      <c r="E39">
+        <v>0.02660247038817792</v>
+      </c>
+      <c r="F39">
+        <v>-0.02631476655428564</v>
+      </c>
+      <c r="G39">
+        <v>0.02988884055893302</v>
+      </c>
+      <c r="H39">
+        <v>0.07823107920523936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01173403029582706</v>
+        <v>-0.01550195097538204</v>
       </c>
       <c r="C40">
-        <v>-0.04906050740326792</v>
+        <v>-0.03988066879621711</v>
       </c>
       <c r="D40">
-        <v>0.08949068303146702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09230344082858569</v>
+      </c>
+      <c r="E40">
+        <v>0.09296151046480772</v>
+      </c>
+      <c r="F40">
+        <v>0.04416617153665504</v>
+      </c>
+      <c r="G40">
+        <v>0.02254827428119829</v>
+      </c>
+      <c r="H40">
+        <v>0.1324882452278775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0263817411228232</v>
+        <v>-0.02278453211781264</v>
       </c>
       <c r="C41">
-        <v>-0.001424321601471357</v>
+        <v>-0.01040483057511805</v>
       </c>
       <c r="D41">
-        <v>0.07703586361841284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05988400304412374</v>
+      </c>
+      <c r="E41">
+        <v>0.06398161651780178</v>
+      </c>
+      <c r="F41">
+        <v>-0.007959875217271912</v>
+      </c>
+      <c r="G41">
+        <v>0.01602478294962378</v>
+      </c>
+      <c r="H41">
+        <v>0.04119664531753591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0396764228753986</v>
+        <v>-0.0282859773539148</v>
       </c>
       <c r="C43">
-        <v>-0.01662901649226712</v>
+        <v>-0.02261001157140778</v>
       </c>
       <c r="D43">
-        <v>0.1191466060864103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.09123077805329009</v>
+      </c>
+      <c r="E43">
+        <v>0.05853196051852729</v>
+      </c>
+      <c r="F43">
+        <v>0.0003753856237923174</v>
+      </c>
+      <c r="G43">
+        <v>0.02335435092216412</v>
+      </c>
+      <c r="H43">
+        <v>0.05938473094995237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01522345516539361</v>
+        <v>-0.01805331168548684</v>
       </c>
       <c r="C44">
-        <v>-0.05010831134954603</v>
+        <v>-0.04305118578297049</v>
       </c>
       <c r="D44">
-        <v>0.07925035056414004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08957804190940732</v>
+      </c>
+      <c r="E44">
+        <v>0.07726449386205121</v>
+      </c>
+      <c r="F44">
+        <v>-0.01603267601637558</v>
+      </c>
+      <c r="G44">
+        <v>0.04023417499365537</v>
+      </c>
+      <c r="H44">
+        <v>0.05059420196785591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01872985444637825</v>
+        <v>-0.0156656133838181</v>
       </c>
       <c r="C46">
-        <v>-0.02117237112611392</v>
+        <v>-0.02908526977645988</v>
       </c>
       <c r="D46">
-        <v>0.06748662342396777</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.07825866425795726</v>
+      </c>
+      <c r="E46">
+        <v>0.05773082723974277</v>
+      </c>
+      <c r="F46">
+        <v>-0.02405082080672497</v>
+      </c>
+      <c r="G46">
+        <v>0.054053221320326</v>
+      </c>
+      <c r="H46">
+        <v>0.07951141107202109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09760087547934725</v>
+        <v>-0.09398317227993903</v>
       </c>
       <c r="C47">
-        <v>-0.0714383990896036</v>
+        <v>-0.08897586981241835</v>
       </c>
       <c r="D47">
-        <v>0.03993574114791922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03130438207609818</v>
+      </c>
+      <c r="E47">
+        <v>0.04935762690875244</v>
+      </c>
+      <c r="F47">
+        <v>0.02088806249902022</v>
+      </c>
+      <c r="G47">
+        <v>0.05466325438713986</v>
+      </c>
+      <c r="H47">
+        <v>-0.009064185776754684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0252405148769232</v>
+        <v>-0.02165975585280315</v>
       </c>
       <c r="C48">
-        <v>-0.01092436993677694</v>
+        <v>-0.0203957059595579</v>
       </c>
       <c r="D48">
-        <v>0.07079495332935018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07450201729806247</v>
+      </c>
+      <c r="E48">
+        <v>0.0620265555841318</v>
+      </c>
+      <c r="F48">
+        <v>-0.02300090349901562</v>
+      </c>
+      <c r="G48">
+        <v>0.03117936083950612</v>
+      </c>
+      <c r="H48">
+        <v>0.04247358248740489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08545579845499704</v>
+        <v>-0.07156957825416932</v>
       </c>
       <c r="C50">
-        <v>-0.0827644838468193</v>
+        <v>-0.07867229655667218</v>
       </c>
       <c r="D50">
-        <v>0.05894172632997454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0527782457336293</v>
+      </c>
+      <c r="E50">
+        <v>0.07228695066774139</v>
+      </c>
+      <c r="F50">
+        <v>0.04283745225101555</v>
+      </c>
+      <c r="G50">
+        <v>0.009564430190818842</v>
+      </c>
+      <c r="H50">
+        <v>0.04395482834706865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01293121336434009</v>
+        <v>-0.01090004960031044</v>
       </c>
       <c r="C51">
-        <v>-0.0297427599056121</v>
+        <v>-0.02143001442357863</v>
       </c>
       <c r="D51">
-        <v>0.09402855420515181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09052345352165982</v>
+      </c>
+      <c r="E51">
+        <v>0.04273005125251671</v>
+      </c>
+      <c r="F51">
+        <v>-0.008539965727655544</v>
+      </c>
+      <c r="G51">
+        <v>0.01820787887542455</v>
+      </c>
+      <c r="H51">
+        <v>0.07368933968072537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08487843257485871</v>
+        <v>-0.09720592145885162</v>
       </c>
       <c r="C53">
-        <v>-0.08193356506441632</v>
+        <v>-0.09511336099020577</v>
       </c>
       <c r="D53">
-        <v>0.01794880845291404</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004562072716611405</v>
+      </c>
+      <c r="E53">
+        <v>0.1021003119325415</v>
+      </c>
+      <c r="F53">
+        <v>0.01540300333049474</v>
+      </c>
+      <c r="G53">
+        <v>0.07520338392094215</v>
+      </c>
+      <c r="H53">
+        <v>-0.06135021236516033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0378584942854103</v>
+        <v>-0.03014877684008108</v>
       </c>
       <c r="C54">
-        <v>-0.02979235187894699</v>
+        <v>-0.03491035635766487</v>
       </c>
       <c r="D54">
-        <v>0.0779520958563453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08469174237156196</v>
+      </c>
+      <c r="E54">
+        <v>0.06197250810507943</v>
+      </c>
+      <c r="F54">
+        <v>-0.02301939823768541</v>
+      </c>
+      <c r="G54">
+        <v>0.03349046469368249</v>
+      </c>
+      <c r="H54">
+        <v>0.1012689615710052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08895016856695136</v>
+        <v>-0.09281582947812506</v>
       </c>
       <c r="C55">
-        <v>-0.06300349810302247</v>
+        <v>-0.07877944131530112</v>
       </c>
       <c r="D55">
-        <v>0.006807159483324454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01266819383198009</v>
+      </c>
+      <c r="E55">
+        <v>0.0649179127260793</v>
+      </c>
+      <c r="F55">
+        <v>0.0205873651181621</v>
+      </c>
+      <c r="G55">
+        <v>0.0291890436348442</v>
+      </c>
+      <c r="H55">
+        <v>-0.03946458781776657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1450094983054767</v>
+        <v>-0.1468633774269996</v>
       </c>
       <c r="C56">
-        <v>-0.08944776051675157</v>
+        <v>-0.1149904056852806</v>
       </c>
       <c r="D56">
-        <v>0.002660557584867245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02052500866063126</v>
+      </c>
+      <c r="E56">
+        <v>0.05626434267397516</v>
+      </c>
+      <c r="F56">
+        <v>0.01802064431856401</v>
+      </c>
+      <c r="G56">
+        <v>0.04098761285355849</v>
+      </c>
+      <c r="H56">
+        <v>-0.04987661127129522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03853671681480043</v>
+        <v>-0.03688464272549755</v>
       </c>
       <c r="C58">
-        <v>0.01712304267430862</v>
+        <v>-0.01601397233148013</v>
       </c>
       <c r="D58">
-        <v>0.4386378341100831</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3715742635860887</v>
+      </c>
+      <c r="E58">
+        <v>0.2199416959325848</v>
+      </c>
+      <c r="F58">
+        <v>0.1087398604175741</v>
+      </c>
+      <c r="G58">
+        <v>-0.4666182752421082</v>
+      </c>
+      <c r="H58">
+        <v>-0.2995920536295056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1258521051846896</v>
+        <v>-0.155840875995328</v>
       </c>
       <c r="C59">
-        <v>0.2119801778563783</v>
+        <v>0.1866350835579005</v>
       </c>
       <c r="D59">
-        <v>0.02759498815215534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04297451845596949</v>
+      </c>
+      <c r="E59">
+        <v>0.01013813700830899</v>
+      </c>
+      <c r="F59">
+        <v>-0.02744501543910439</v>
+      </c>
+      <c r="G59">
+        <v>-0.01719490113596973</v>
+      </c>
+      <c r="H59">
+        <v>-0.02028140621695416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.256681398939259</v>
+        <v>-0.2344315682022994</v>
       </c>
       <c r="C60">
-        <v>-0.06653781766386983</v>
+        <v>-0.08687210208606862</v>
       </c>
       <c r="D60">
-        <v>0.1071117411123986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1413988688587707</v>
+      </c>
+      <c r="E60">
+        <v>-0.3556794782314639</v>
+      </c>
+      <c r="F60">
+        <v>0.122801286707734</v>
+      </c>
+      <c r="G60">
+        <v>-0.02492074424814246</v>
+      </c>
+      <c r="H60">
+        <v>-0.05505777769634423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05092134831700186</v>
+        <v>-0.04394636797390915</v>
       </c>
       <c r="C61">
-        <v>-0.05030498865919519</v>
+        <v>-0.05542965649403397</v>
       </c>
       <c r="D61">
-        <v>0.09131174685784199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08916344087401834</v>
+      </c>
+      <c r="E61">
+        <v>0.02547750974888215</v>
+      </c>
+      <c r="F61">
+        <v>-0.01144395433945727</v>
+      </c>
+      <c r="G61">
+        <v>0.04089045005714298</v>
+      </c>
+      <c r="H61">
+        <v>0.06378110829119671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01788542424472304</v>
+        <v>-0.01768676463384749</v>
       </c>
       <c r="C63">
-        <v>-0.02168165721105937</v>
+        <v>-0.02783022855966533</v>
       </c>
       <c r="D63">
-        <v>0.05490966820754705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06750845945748697</v>
+      </c>
+      <c r="E63">
+        <v>0.0617603759906612</v>
+      </c>
+      <c r="F63">
+        <v>0.01646300081245871</v>
+      </c>
+      <c r="G63">
+        <v>0.01803572450783344</v>
+      </c>
+      <c r="H63">
+        <v>0.0375597046163019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05636639544842558</v>
+        <v>-0.05718152181631657</v>
       </c>
       <c r="C64">
-        <v>-0.04938891127672071</v>
+        <v>-0.06697717699582638</v>
       </c>
       <c r="D64">
-        <v>0.0613481132284353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05270659735998182</v>
+      </c>
+      <c r="E64">
+        <v>0.03913157313370809</v>
+      </c>
+      <c r="F64">
+        <v>-0.03296258235642929</v>
+      </c>
+      <c r="G64">
+        <v>0.07020916423953948</v>
+      </c>
+      <c r="H64">
+        <v>0.01918319779052946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06128456524076433</v>
+        <v>-0.05368277714928363</v>
       </c>
       <c r="C65">
-        <v>-0.015404873608901</v>
+        <v>-0.02339139839747273</v>
       </c>
       <c r="D65">
-        <v>0.1066649510209907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.117019857860105</v>
+      </c>
+      <c r="E65">
+        <v>0.01175211763295132</v>
+      </c>
+      <c r="F65">
+        <v>0.01521834815918487</v>
+      </c>
+      <c r="G65">
+        <v>-0.04422544089090989</v>
+      </c>
+      <c r="H65">
+        <v>-0.01933260938235248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05361002568713752</v>
+        <v>-0.04825711834777179</v>
       </c>
       <c r="C66">
-        <v>-0.05749201080697194</v>
+        <v>-0.06892899844566198</v>
       </c>
       <c r="D66">
-        <v>0.1070222920100488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1195835654634385</v>
+      </c>
+      <c r="E66">
+        <v>0.03013566201877836</v>
+      </c>
+      <c r="F66">
+        <v>-0.01307594435060271</v>
+      </c>
+      <c r="G66">
+        <v>0.01829234231257049</v>
+      </c>
+      <c r="H66">
+        <v>0.0605227794288057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05290772268964403</v>
+        <v>-0.04278767807980688</v>
       </c>
       <c r="C67">
-        <v>-0.02576288561122267</v>
+        <v>-0.02749793531785433</v>
       </c>
       <c r="D67">
-        <v>0.02479642066807293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02411300063516708</v>
+      </c>
+      <c r="E67">
+        <v>0.02552113572199128</v>
+      </c>
+      <c r="F67">
+        <v>-0.0004472023626954914</v>
+      </c>
+      <c r="G67">
+        <v>-0.01781289468314957</v>
+      </c>
+      <c r="H67">
+        <v>0.03412831812994759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1364135878253873</v>
+        <v>-0.1678926737662223</v>
       </c>
       <c r="C68">
-        <v>0.2921637648396376</v>
+        <v>0.2373854429795967</v>
       </c>
       <c r="D68">
-        <v>-0.02752837116089132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.001227850713152971</v>
+      </c>
+      <c r="E68">
+        <v>0.05279731780163446</v>
+      </c>
+      <c r="F68">
+        <v>0.030389250141533</v>
+      </c>
+      <c r="G68">
+        <v>-0.00981458422649382</v>
+      </c>
+      <c r="H68">
+        <v>-0.008507954509424936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09846396802776403</v>
+        <v>-0.08942121796833184</v>
       </c>
       <c r="C69">
-        <v>-0.08290775258944304</v>
+        <v>-0.1006329672017124</v>
       </c>
       <c r="D69">
-        <v>0.04340783566151656</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04527997398335468</v>
+      </c>
+      <c r="E69">
+        <v>0.04788534928320919</v>
+      </c>
+      <c r="F69">
+        <v>-0.002262485653936052</v>
+      </c>
+      <c r="G69">
+        <v>0.05198090125258337</v>
+      </c>
+      <c r="H69">
+        <v>0.0139823457720871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1202940846425057</v>
+        <v>-0.1589482482057465</v>
       </c>
       <c r="C71">
-        <v>0.2603009387300823</v>
+        <v>0.2334267899014391</v>
       </c>
       <c r="D71">
-        <v>0.03587775122987629</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03706769315910444</v>
+      </c>
+      <c r="E71">
+        <v>0.05530967862449895</v>
+      </c>
+      <c r="F71">
+        <v>0.01833016861199658</v>
+      </c>
+      <c r="G71">
+        <v>0.04226803154636021</v>
+      </c>
+      <c r="H71">
+        <v>0.005060229949006937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09800605109923036</v>
+        <v>-0.1024883030703196</v>
       </c>
       <c r="C72">
-        <v>-0.04312061364813338</v>
+        <v>-0.05635964625587432</v>
       </c>
       <c r="D72">
-        <v>0.08026534941106134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08805957986625684</v>
+      </c>
+      <c r="E72">
+        <v>-0.01405767270479188</v>
+      </c>
+      <c r="F72">
+        <v>0.02879162764761172</v>
+      </c>
+      <c r="G72">
+        <v>0.05392647997130307</v>
+      </c>
+      <c r="H72">
+        <v>0.01911509333297998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3019077837894</v>
+        <v>-0.2671818381831747</v>
       </c>
       <c r="C73">
-        <v>-0.002014602142027003</v>
+        <v>-0.04958819669169534</v>
       </c>
       <c r="D73">
-        <v>0.193975068469906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2310716549699841</v>
+      </c>
+      <c r="E73">
+        <v>-0.6499321106325178</v>
+      </c>
+      <c r="F73">
+        <v>0.1613538715688476</v>
+      </c>
+      <c r="G73">
+        <v>-0.07140255908784157</v>
+      </c>
+      <c r="H73">
+        <v>-0.06356007298218443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1069496011410435</v>
+        <v>-0.1092596343912327</v>
       </c>
       <c r="C74">
-        <v>-0.08116373334703172</v>
+        <v>-0.09232447474629882</v>
       </c>
       <c r="D74">
-        <v>0.03701035783044886</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.00587127558463421</v>
+      </c>
+      <c r="E74">
+        <v>0.0751021281914125</v>
+      </c>
+      <c r="F74">
+        <v>0.0421740630140689</v>
+      </c>
+      <c r="G74">
+        <v>0.03167039809295188</v>
+      </c>
+      <c r="H74">
+        <v>-0.07844318408847788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2575663390468604</v>
+        <v>-0.2531296624499199</v>
       </c>
       <c r="C75">
-        <v>-0.1011073510871782</v>
+        <v>-0.1414746982361777</v>
       </c>
       <c r="D75">
-        <v>-0.08143562506753901</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1233175143905586</v>
+      </c>
+      <c r="E75">
+        <v>0.06145026223492608</v>
+      </c>
+      <c r="F75">
+        <v>-0.0219253998410631</v>
+      </c>
+      <c r="G75">
+        <v>0.01565697365656733</v>
+      </c>
+      <c r="H75">
+        <v>-0.17047254191081</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.116880550013201</v>
+        <v>-0.1281201168807911</v>
       </c>
       <c r="C76">
-        <v>-0.0834854743256926</v>
+        <v>-0.1029068868286786</v>
       </c>
       <c r="D76">
-        <v>0.006171153418527982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02562173772428374</v>
+      </c>
+      <c r="E76">
+        <v>0.1063086420959181</v>
+      </c>
+      <c r="F76">
+        <v>-0.00124987059006033</v>
+      </c>
+      <c r="G76">
+        <v>0.05225864998828816</v>
+      </c>
+      <c r="H76">
+        <v>-0.04937965474417073</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08098715097402594</v>
+        <v>-0.0681142573890038</v>
       </c>
       <c r="C77">
-        <v>-0.01359060142142048</v>
+        <v>-0.06153738759145082</v>
       </c>
       <c r="D77">
-        <v>0.1098043133170244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1156037557618725</v>
+      </c>
+      <c r="E77">
+        <v>0.06819046320625517</v>
+      </c>
+      <c r="F77">
+        <v>-0.2919926424055432</v>
+      </c>
+      <c r="G77">
+        <v>-0.1776896792165312</v>
+      </c>
+      <c r="H77">
+        <v>-0.1195016847190826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03971541352116317</v>
+        <v>-0.04467043251570205</v>
       </c>
       <c r="C78">
-        <v>-0.04149053145675938</v>
+        <v>-0.05795348809852606</v>
       </c>
       <c r="D78">
-        <v>0.09085902813537311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1191219909946112</v>
+      </c>
+      <c r="E78">
+        <v>0.03067539174124397</v>
+      </c>
+      <c r="F78">
+        <v>0.001752851713986438</v>
+      </c>
+      <c r="G78">
+        <v>0.04256228779241213</v>
+      </c>
+      <c r="H78">
+        <v>0.01832381919965473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.004148902441756889</v>
+        <v>-0.04018031969805472</v>
       </c>
       <c r="C79">
-        <v>0.002931516612044601</v>
+        <v>-0.06754522430690466</v>
       </c>
       <c r="D79">
-        <v>0.01709601558500016</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05530813576251203</v>
+      </c>
+      <c r="E79">
+        <v>0.1262843104216773</v>
+      </c>
+      <c r="F79">
+        <v>0.04523680144654724</v>
+      </c>
+      <c r="G79">
+        <v>0.3609100114207753</v>
+      </c>
+      <c r="H79">
+        <v>-0.6889643546371791</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03508592686991344</v>
+        <v>-0.02950629175912728</v>
       </c>
       <c r="C80">
-        <v>-0.02040195535434698</v>
+        <v>-0.03765033091300416</v>
       </c>
       <c r="D80">
-        <v>0.03906563585516318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03618833539859713</v>
+      </c>
+      <c r="E80">
+        <v>0.003348451808907958</v>
+      </c>
+      <c r="F80">
+        <v>-0.04512999054019822</v>
+      </c>
+      <c r="G80">
+        <v>-0.0258552910101832</v>
+      </c>
+      <c r="H80">
+        <v>0.03896546681655166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1523700983594454</v>
+        <v>-0.141383727624293</v>
       </c>
       <c r="C81">
-        <v>-0.08192914034771601</v>
+        <v>-0.1079407741205429</v>
       </c>
       <c r="D81">
-        <v>-0.03671224919200599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07918584433362345</v>
+      </c>
+      <c r="E81">
+        <v>0.1028988029283781</v>
+      </c>
+      <c r="F81">
+        <v>-0.00910028432255516</v>
+      </c>
+      <c r="G81">
+        <v>0.03412301664873158</v>
+      </c>
+      <c r="H81">
+        <v>-0.07186706574287929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2693692173278125</v>
+        <v>-0.2517734413241631</v>
       </c>
       <c r="C82">
-        <v>-0.1873333656228423</v>
+        <v>-0.207434522015491</v>
       </c>
       <c r="D82">
-        <v>-0.2298344440514362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.230441994380154</v>
+      </c>
+      <c r="E82">
+        <v>-0.04789423420097783</v>
+      </c>
+      <c r="F82">
+        <v>0.01525404996843225</v>
+      </c>
+      <c r="G82">
+        <v>0.4115147158770984</v>
+      </c>
+      <c r="H82">
+        <v>0.3375525496885368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0427582604102393</v>
+        <v>-0.02803602577661045</v>
       </c>
       <c r="C83">
-        <v>-0.03530805662226887</v>
+        <v>-0.04809180698318189</v>
       </c>
       <c r="D83">
-        <v>0.07263698488913253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05131201254168459</v>
+      </c>
+      <c r="E83">
+        <v>0.003806910803617907</v>
+      </c>
+      <c r="F83">
+        <v>-0.02526647042594306</v>
+      </c>
+      <c r="G83">
+        <v>0.002394340634176034</v>
+      </c>
+      <c r="H83">
+        <v>0.02605796309019944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-8.231347204954128e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.002152309130329633</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.004336787855231719</v>
+      </c>
+      <c r="E84">
+        <v>0.009854601579256684</v>
+      </c>
+      <c r="F84">
+        <v>0.004306547502151085</v>
+      </c>
+      <c r="G84">
+        <v>-0.003954246493119424</v>
+      </c>
+      <c r="H84">
+        <v>0.007914208678096373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1949277889885332</v>
+        <v>-0.1784284130925986</v>
       </c>
       <c r="C85">
-        <v>-0.07953762714548641</v>
+        <v>-0.1113824694328491</v>
       </c>
       <c r="D85">
-        <v>-0.07053818618200043</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0931373572374106</v>
+      </c>
+      <c r="E85">
+        <v>0.03300242310125721</v>
+      </c>
+      <c r="F85">
+        <v>0.01798321839142883</v>
+      </c>
+      <c r="G85">
+        <v>0.06533504028827307</v>
+      </c>
+      <c r="H85">
+        <v>-0.1474358935693643</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01375171746587632</v>
+        <v>-0.0188591448332367</v>
       </c>
       <c r="C86">
-        <v>-0.01497566869638277</v>
+        <v>-0.01283640611816988</v>
       </c>
       <c r="D86">
-        <v>0.1371171175266601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1221799269354529</v>
+      </c>
+      <c r="E86">
+        <v>0.02417899810550425</v>
+      </c>
+      <c r="F86">
+        <v>-0.0138305838943559</v>
+      </c>
+      <c r="G86">
+        <v>0.04268924227304596</v>
+      </c>
+      <c r="H86">
+        <v>0.05332604268511071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03342837894299935</v>
+        <v>-0.03516596243968916</v>
       </c>
       <c r="C87">
-        <v>-0.008428896979114718</v>
+        <v>-0.02613445725000885</v>
       </c>
       <c r="D87">
-        <v>0.1100527985565798</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1238702405352219</v>
+      </c>
+      <c r="E87">
+        <v>0.09503579882560294</v>
+      </c>
+      <c r="F87">
+        <v>-0.03342831775718934</v>
+      </c>
+      <c r="G87">
+        <v>0.0053514374816239</v>
+      </c>
+      <c r="H87">
+        <v>0.02658892533223231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09797758558179416</v>
+        <v>-0.083393129705394</v>
       </c>
       <c r="C88">
-        <v>-0.07349429998343837</v>
+        <v>-0.07003338874929649</v>
       </c>
       <c r="D88">
-        <v>0.06654623287671627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03788371499183413</v>
+      </c>
+      <c r="E88">
+        <v>0.0563392398734059</v>
+      </c>
+      <c r="F88">
+        <v>-0.009477175920448003</v>
+      </c>
+      <c r="G88">
+        <v>0.02601843936793987</v>
+      </c>
+      <c r="H88">
+        <v>0.0384028616414464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1928887932957586</v>
+        <v>-0.2440671916731958</v>
       </c>
       <c r="C89">
-        <v>0.3715641198633229</v>
+        <v>0.3651058647692056</v>
       </c>
       <c r="D89">
-        <v>-0.02576685240450395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.002629066366354185</v>
+      </c>
+      <c r="E89">
+        <v>0.08208672095816323</v>
+      </c>
+      <c r="F89">
+        <v>-0.06108861470145319</v>
+      </c>
+      <c r="G89">
+        <v>0.03544466437153759</v>
+      </c>
+      <c r="H89">
+        <v>0.03139379584670699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1847179300217245</v>
+        <v>-0.2185578803447557</v>
       </c>
       <c r="C90">
-        <v>0.3082656084133759</v>
+        <v>0.2822264289780942</v>
       </c>
       <c r="D90">
-        <v>-0.01978382802716103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01308672277224742</v>
+      </c>
+      <c r="E90">
+        <v>0.05670698367246425</v>
+      </c>
+      <c r="F90">
+        <v>-0.00236261391212306</v>
+      </c>
+      <c r="G90">
+        <v>-0.009547537489029518</v>
+      </c>
+      <c r="H90">
+        <v>0.05854781863614236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1932631485402331</v>
+        <v>-0.1821280787335021</v>
       </c>
       <c r="C91">
-        <v>-0.1449429865701071</v>
+        <v>-0.1607728500254231</v>
       </c>
       <c r="D91">
-        <v>-0.04427011416042184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08499750299961263</v>
+      </c>
+      <c r="E91">
+        <v>0.0863652482622268</v>
+      </c>
+      <c r="F91">
+        <v>0.005981243632739402</v>
+      </c>
+      <c r="G91">
+        <v>0.03112886293952289</v>
+      </c>
+      <c r="H91">
+        <v>-0.1554549444768618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1744665081265547</v>
+        <v>-0.2000233369776202</v>
       </c>
       <c r="C92">
-        <v>0.2733327194447258</v>
+        <v>0.2821403397693381</v>
       </c>
       <c r="D92">
-        <v>0.02914237502015482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01363524391079906</v>
+      </c>
+      <c r="E92">
+        <v>0.07745288986338693</v>
+      </c>
+      <c r="F92">
+        <v>-0.0479597971768075</v>
+      </c>
+      <c r="G92">
+        <v>0.02557392242759454</v>
+      </c>
+      <c r="H92">
+        <v>0.03571682827302487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2075593265255629</v>
+        <v>-0.2386661521924665</v>
       </c>
       <c r="C93">
-        <v>0.3299804669315118</v>
+        <v>0.2990822351888197</v>
       </c>
       <c r="D93">
-        <v>0.0007401475633045459</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005949525755473824</v>
+      </c>
+      <c r="E93">
+        <v>0.04070947135163737</v>
+      </c>
+      <c r="F93">
+        <v>0.02632965964087259</v>
+      </c>
+      <c r="G93">
+        <v>0.02747303375373816</v>
+      </c>
+      <c r="H93">
+        <v>0.01677755902140538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.403876761028417</v>
+        <v>-0.3563958017710566</v>
       </c>
       <c r="C94">
-        <v>-0.2279846664140479</v>
+        <v>-0.231213563433755</v>
       </c>
       <c r="D94">
-        <v>-0.4656910526275407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4424169034781059</v>
+      </c>
+      <c r="E94">
+        <v>0.1069787421757579</v>
+      </c>
+      <c r="F94">
+        <v>-0.02633112728978518</v>
+      </c>
+      <c r="G94">
+        <v>-0.5783304577021353</v>
+      </c>
+      <c r="H94">
+        <v>0.155247214574948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09682689998438544</v>
+        <v>-0.07217475354307781</v>
       </c>
       <c r="C95">
-        <v>0.01506924145365784</v>
+        <v>-0.0381060837651476</v>
       </c>
       <c r="D95">
-        <v>0.06382351084703689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09666061657715831</v>
+      </c>
+      <c r="E95">
+        <v>-0.1899206107975847</v>
+      </c>
+      <c r="F95">
+        <v>-0.8957029602288807</v>
+      </c>
+      <c r="G95">
+        <v>0.0136365571268698</v>
+      </c>
+      <c r="H95">
+        <v>-0.07288118242847996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1721805144083892</v>
+        <v>-0.1692546796408071</v>
       </c>
       <c r="C98">
-        <v>-0.01726125352785334</v>
+        <v>-0.04610890137743637</v>
       </c>
       <c r="D98">
-        <v>0.1315372009055919</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1494132391182819</v>
+      </c>
+      <c r="E98">
+        <v>-0.2687465083984544</v>
+      </c>
+      <c r="F98">
+        <v>0.1132597940767525</v>
+      </c>
+      <c r="G98">
+        <v>0.01075942880114484</v>
+      </c>
+      <c r="H98">
+        <v>-0.01030147155109828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007691388073116183</v>
+        <v>-0.007951707680349702</v>
       </c>
       <c r="C101">
-        <v>-0.02139806582665445</v>
+        <v>-0.0233997976570028</v>
       </c>
       <c r="D101">
-        <v>0.06312528036960141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07386278722581895</v>
+      </c>
+      <c r="E101">
+        <v>0.05857001315384718</v>
+      </c>
+      <c r="F101">
+        <v>-0.0005277459491214522</v>
+      </c>
+      <c r="G101">
+        <v>0.04333506627010173</v>
+      </c>
+      <c r="H101">
+        <v>0.07759466180866162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.127662567216064</v>
+        <v>-0.1193592886732131</v>
       </c>
       <c r="C102">
-        <v>-0.08308100557901643</v>
+        <v>-0.1092324417894334</v>
       </c>
       <c r="D102">
-        <v>-0.03092403994447248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04910152258605435</v>
+      </c>
+      <c r="E102">
+        <v>0.0125204751810139</v>
+      </c>
+      <c r="F102">
+        <v>-0.02448332361015451</v>
+      </c>
+      <c r="G102">
+        <v>0.04670688036289757</v>
+      </c>
+      <c r="H102">
+        <v>-0.02219766022973522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
